--- a/Projects/PriceComparison/ExcelFiles/AmzProd.xlsx
+++ b/Projects/PriceComparison/ExcelFiles/AmzProd.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R$ 2.399,99</t>
+          <t>R$ 2.400,00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R$ 2.059,00</t>
+          <t>R$ 1.899,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,34 +504,34 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Placa de Vídeo NVIDIA GeForce RTX 2060 Super 8GB GDDR6 PCI-E 3 26ISL6HP68LD Galax</t>
+          <t>Galax Placa de Vídeo - GeForce RTX 3070 Ti, 1-Click OC, 8GB GDDR6X, 37ISM6MD4COC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$ 2.434,90</t>
+          <t>R$ 4.599,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-26ISL6HP68LD-Galax/dp/B0899JHJ6K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09N7QXNW1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Galax GPU NV RTX2060 12GB PLUS 1CLICK OC G6 192B 26NRL7HP68NC</t>
+          <t>Placa de Vídeo NVIDIA GeForce RTX 2060 Super 8GB GDDR6 PCI-E 3 26ISL6HP68LD Galax</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$ 2.329,90</t>
+          <t>R$ 2.459,90</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Galax-RTX2060-12GB-1CLICK-26NRL7HP68NC/dp/B09T2GYN3F?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-26ISL6HP68LD-Galax/dp/B0899JHJ6K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$ 3.899,00</t>
+          <t>R$ 3.399,15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -555,51 +555,51 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Galax Placa de Vídeo - GeForce RTX 3070 Ti, 1-Click OC, 8GB GDDR6X, 37ISM6MD4COC</t>
+          <t>Galax GPU NV RTX2060 12GB PLUS 1CLICK OC G6 192B 26NRL7HP68NC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$ 4.599,00</t>
+          <t>R$ 2.299,90</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09N7QXNW1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Galax-RTX2060-12GB-1CLICK-26NRL7HP68NC/dp/B09T2GYN3F?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZOTAC Placa gráfica Gaming GeForce RTX 3070 Ti Trinity OC NVIDIA 8GB GDDR6X, ZT-A30710J-10P</t>
+          <t>PLACA DE VIDEO GIGABYTE GEFORCE RTX 2060 12GB GDDR6 - GV-N2060D6-12GD, 3304807593</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$ 6.698,56</t>
+          <t>R$ 2.760,32</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/gr%C3%A1fica-Gaming-GeForce-Trinity-ZT-A30710J-10P/dp/B09832YFZF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-GIGABYTE-GEFORCE-GDDR6/dp/B09Q8PTQMH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO GIGABYTE GEFORCE RTX 2060 12GB GDDR6 - GV-N2060D6-12GD, 3304807593</t>
+          <t>PLACA DE VIDEO PALIT GEFORCE RTX 3060 DUAL 12GB GDDR6 192 BITS - NE63060019K9-190AD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$ 2.760,32</t>
+          <t>R$ 2.699,00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-GIGABYTE-GEFORCE-GDDR6/dp/B09Q8PTQMH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$ 3.999,90</t>
+          <t>R$ 3.999,99</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -623,544 +623,544 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Galax Placa de Vídeo - GeForce RTX 3080 Serious Gaming, 10GB, LHR, RGB, DLSS, Ray Tracing, 38NWM3MD99RG</t>
+          <t>MSI Placa de vídeo Gaming GeForce RTX 3060 12GB 15 Gbps GDRR6 192-Bit HDMI/DP PCIe 4 Torx Triple Fan Ampere OC (RTX 3060 Ventus 3X 12G OC)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$ 6.299,90</t>
+          <t>R$ 2.949,00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-Serious/dp/B09BB3DM7M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/MSI-RTX-3060-Ventus-12G/dp/B08WTFG5BX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS Gaming - GeForce Dual RTX 3060, 12GB GDDR6, RGB, LHR, Ray Tracing, DLSS</t>
+          <t>Placa de Vídeo ASUS TUF Gaming - GeForce RTX 3070, V2 OC Edition, LHR, 8GB GDDR6, Ray Tracing, DLSS</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$ 3.390,00</t>
+          <t>R$ 4.227,26</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-TUF-Gaming/dp/B096658ZWP?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-Geforce-Gaming-256-bit-Tuf-rtx3070-o8g-v2-gaming/dp/B097TCX8QL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO PALIT GEFORCE RTX 3060 DUAL 12GB GDDR6 192 BITS - NE63060019K9-190AD</t>
+          <t>Placa de Vídeo GALAX - GeForce RTX 3060 Ti, 1-Click OC, 8GB GDDR6 LHR</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$ 2.699,00</t>
+          <t>R$ 3.199,00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09BB3V61K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Placa de Vídeo GALAX - GeForce RTX 3060 Ti, 1-Click OC, 8GB GDDR6 LHR</t>
+          <t>Galax PLACA DE VIDEO GEFORCE RTX 2060 PLUS (1 CLICK - OC ) 6GB GDDR6 192BITS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$ 3.201,90</t>
+          <t>R$ 1.979,00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09BB3V61K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Galax-GEFORCE-RTX-2060-PLUS/dp/B08M9QJJTT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Galax PLACA DE VIDEO GEFORCE RTX 2060 PLUS (1 CLICK - OC ) 6GB GDDR6 192BITS</t>
+          <t>MLLSE Placa gráfica 2060 - GDDR6 6GB 192 bits Ventiladores Duplos (RTX 2060 6GB)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$ 1.969,00</t>
+          <t>R$ 1.529,00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Galax-GEFORCE-RTX-2060-PLUS/dp/B08M9QJJTT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/MLLSE-Placa-gr%C3%A1fica-2060-Ventiladores/dp/B0BC47DQYL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MLLSE Placa gráfica 2060 - GDDR6 6GB 192 bits Ventiladores Duplos (RTX 2060 6GB)</t>
+          <t>GPU AMD RX6600XT 8GB GDDR6 SPEEDSTER SWFT210 XFX RX66XT8DFDQ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$ 1.529,00</t>
+          <t>R$ 2.589,90</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/MLLSE-Placa-gr%C3%A1fica-2060-Ventiladores/dp/B0BC47DQYL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/RX6600XT-SPEEDSTER-SWFT210-XFX-RX66XT8DFDQ/dp/B09B17SQBS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Powercolor Placa de Vídeo AMD Radeon RX 6700 XT 12GB DDR6 192 Bits - AXRX 6700XT 12GBD6-3</t>
+          <t>Galax Placa de Vídeo - GeForce RTX 3080 Serious Gaming, 10GB, LHR, RGB, DLSS, Ray Tracing, 38NWM3MD99RG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$ 3.587,00</t>
+          <t>R$ 6.299,90</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Power-Color-Radeon/dp/B08Y934HZQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-Serious/dp/B09BB3DM7M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS - GeForce RTX 3070, 8GB GDDR6, LHR, DLSS, Ray Tracing</t>
+          <t>Placa de Vídeo ASUS Gaming - GeForce Dual RTX 3060, 12GB GDDR6, RGB, LHR, Ray Tracing, DLSS</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>R$ 4.399,99</t>
+          <t>R$ 3.390,00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-NVIDIA-GeForce-DUAL-RTX3070-O8G/dp/B098JXFQD6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-TUF-Gaming/dp/B096658ZWP?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Gainward - GeForce GTX 3060 Ti, 8GB GDDR6, GHOST Series</t>
+          <t>ZOTAC Placa gráfica Gaming GeForce RTX 3070 Ti Trinity OC NVIDIA 8GB GDDR6X, ZT-A30710J-10P</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R$ 3.299,00</t>
+          <t>R$ 6.773,83</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gainward-GeForce-GDDR6/dp/B08PKZFRZB?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-Gaming-GeForce-Trinity-ZT-A30710J-10P/dp/B09832YFZF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Gainward - GeForce RTX 3070 Phoenix, 8GB GDDR6</t>
+          <t>Placa de Vídeo ASUS - GeForce RTX 3070, 8GB GDDR6, LHR, DLSS, Ray Tracing</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R$ 4.363,00</t>
+          <t>R$ 4.399,99</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/GeForce-Phoenix-NE63070019P2-1041X-Gainward-4710562241990/dp/B08LQ4XF6Z?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-NVIDIA-GeForce-DUAL-RTX3070-O8G/dp/B098JXFQD6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gainward GPU NV RTX3050 8GB GDDR6 GHOST 128BITS 63050019P1-190AB, 471056224-3222</t>
+          <t>Palit PLACA DE VIDEO GEFORCE RTX 3090 TI GAMEROCK 24GB GDDR6 384 BITS - NED309T019SB-1022G</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>R$ 2.078,63</t>
+          <t>R$ 12.352,62</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Gainward-RTX3050-128BITS-63050019P1-190AB-471056224-3222/dp/B09R3WX3SS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Palit-PLACA-VIDEO-GEFORCE-GAMEROCK/dp/B09YBT8LZY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Gigabyte - GeForce RTX 2060, D6, 6G GDDR6</t>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3050 OC 8G GDDR6 128BITs DUAL-RTX3050-O8G, PRETO, 90YV0HH0-M0NA00</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R$ 3.149,00</t>
+          <t>R$ 2.431,00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B095SWPGVR?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ASUS-GEFORCE-128BITs-DUAL-RTX3050-O8G-90YV0HH0-M0NA00/dp/B09QMG6FZX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3050 OC 8G GDDR6 128BITs DUAL-RTX3050-O8G, PRETO, 90YV0HH0-M0NA00</t>
+          <t>ASUS Placa De Video Geforce Rtx 3060ti Dual Oc V2 8gb Gddr6 256-bit Dual-rtx3060ti-o8g-v2, 90YV0G1J-M0NA00</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R$ 2.431,00</t>
+          <t>R$ 4.499,90</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ASUS-GEFORCE-128BITs-DUAL-RTX3050-O8G-90YV0HH0-M0NA00/dp/B09QMG6FZX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-Geforce-3060ti-256-bit-Dual-rtx3060ti-o8g-v2/dp/B098R4K8PV?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Placa gráfica RTX 2060 - GDDR6 6GB 192 bits GDDR 6 Ventiladores Duplos Placa Traseira De Metal</t>
+          <t>Powercolor Placa de Vídeo AMD Radeon RX 6700 XT 12GB DDR6 192 Bits - AXRX 6700XT 12GBD6-3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R$ 1.499,00</t>
+          <t>R$ 4.016,24</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-gr%C3%A1fica-RTX-2060-Ventiladores/dp/B0BGCG8SGJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Power-Color-Radeon/dp/B08Y934HZQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce® RTX 3080 TRINTY LHR</t>
+          <t>Placa de Vídeo Mllse RTX 2060 Super 8GB GDDR6 256Bit PCI Express 3.0x16 RTX2060S GPU (RTX 2060 Super)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>R$ 10.832,71</t>
+          <t>R$ 1.899,00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ZOTAC-GeForce%C2%AE-RTX-3080-TRINTY/dp/B09QG17M2Q?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/RTX-2060-Super-Express-RTX2060S/dp/B0BF56BYS4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO NVIDIA GEFORCE RTX 2060 12GB GDDR6 192 BIT DUAL-FAN GRAFFITI SERIES – PAK206012GBD6DF – PCYES, Cor: Preta</t>
+          <t>Gainward GPU NV RTX3050 8GB GDDR6 GHOST 128BITS 63050019P1-190AB, 471056224-3222</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R$ 2.437,43</t>
+          <t>R$ 2.078,63</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-NVIDIA-GEFORCE-DUAL-FAN-GRAFFITI/dp/B0B59PJSSY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Gainward-RTX3050-128BITS-63050019P1-190AB-471056224-3222/dp/B09R3WX3SS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3090 FTW3 Ultra Gaming Placa gráfica, 24 GB GDDR6X, tecnologia iCX3, ARGB LED, placa traseira de metal, 24G-P5-3987-KR</t>
+          <t>Placa de Vídeo ASUS - GeForce KO-RTX 3060, V2 OC Gaming, LHR, 12 GB GDDR6, Ray Tracing, DLSS, RGB</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R$ 13.000,00</t>
+          <t>R$ 3.515,77</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/EVGA-GeForce-tecnologia-traseira-24G-P5-3987-KR/dp/B08J5F3G18?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-GeForce-Tracing/dp/B09BQDJBB1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO MSI GEFORCE RTX 3060 VENTUS 3X 12GB OC GDDR6 - 912-V397-480</t>
+          <t>Placa de Vídeo Gainward - GeForce RTX 3070 Phoenix, 8GB GDDR6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R$ 4.199,26</t>
+          <t>R$ 4.340,00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-MSI-GEFORCE-VENTUS/dp/B08WRP83LN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/GeForce-Phoenix-NE63070019P2-1041X-Gainward-4710562241990/dp/B08LQ4XF6Z?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Palit PLACA DE VIDEO GEFORCE RTX 3090 TI GAMEROCK 24GB GDDR6 384 BITS - NED309T019SB-1022G</t>
+          <t>ZOTAC GeForce® RTX 3080 TRINTY LHR</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R$ 12.352,62</t>
+          <t>R$ 10.832,71</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Palit-PLACA-VIDEO-GEFORCE-GAMEROCK/dp/B09YBT8LZY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ZOTAC-GeForce%C2%AE-RTX-3080-TRINTY/dp/B09QG17M2Q?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Placa gráfica MSI GeForce RTX 3090 Ventus 3X 24G OC - 24 GB GDDR6X - Largura do barramento 384 bits - DisplayPort - HDMI, G3090V3X24C</t>
+          <t>PLACA DE VIDEO ASUS ROG-STRIX-RTX3070TI-O8G-GAMING</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R$ 13.005,99</t>
+          <t>R$ 6.159,90</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-gr%C3%A1fica-GeForce-3090-Ventus/dp/B08HM661YM?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-DE-VIDEO-ASUS-ROG-STRIX-RTX3070TI-O8G-GAMING/dp/B096SF185K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS AMD Radeon RX 6800 - TUF-RX6800XT-O16G-GAMING</t>
+          <t>PLACA DE VIDEO MSI GEFORCE RTX 3060 VENTUS 3X 12GB OC GDDR6 - 912-V397-480</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R$ 5.299,00</t>
+          <t>R$ 2.919,44</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-Radeon-TUF-RX6800XT-O16G-GAMING/dp/B08QVRZH3C?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-MSI-GEFORCE-VENTUS/dp/B08WRP83LN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Gigabyte - GeForce RTX 3050, 8GB GDDR6</t>
+          <t>EVGA GeForce RTX 3090 FTW3 Ultra Gaming Placa gráfica, 24 GB GDDR6X, tecnologia iCX3, ARGB LED, placa traseira de metal, 24G-P5-3987-KR</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R$ 2.549,00</t>
+          <t>R$ 13.000,00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B09Q8Q5NCK?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/EVGA-GeForce-tecnologia-traseira-24G-P5-3987-KR/dp/B08J5F3G18?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO NVIDIA QUADRO - T600 4GB GDDR6 128 BITS (4X MDP) – VCNT600-PORPB – PNY</t>
+          <t>Placa de Vídeo ASUS AMD Radeon RX 6800 - TUF-RX6800XT-O16G-GAMING</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R$ 1.764,50</t>
+          <t>R$ 4.950,21</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-QUADRO-VCNT600-PORPB/dp/B09K7YMMQF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-Radeon-TUF-RX6800XT-O16G-GAMING/dp/B08QVRZH3C?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Galax GPU NV RTX3080 12GB SG GDDR6X 384BITS LHR 38NOM5MD99SS</t>
+          <t>Placa de Vídeo Gigabyte - GeForce RTX 2060, D6, 6G GDDR6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R$ 6.381,83</t>
+          <t>R$ 3.149,00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Galax-RTX3080-GDDR6X-384BITS-38NOM5MD99SS/dp/B09Q4SND15?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B095SWPGVR?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Mllse RTX 2060 Super 8GB GDDR6 256Bit PCI Express 3.0x16 RTX2060S GPU (RTX 2060 Super)</t>
+          <t>Placa gráfica RTX 2060 - GDDR6 6GB 192 bits GDDR 6 Ventiladores Duplos Placa Traseira De Metal</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>R$ 1.899,00</t>
+          <t>R$ 1.499,00</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/RTX-2060-Super-Express-RTX2060S/dp/B0BF56BYS4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-gr%C3%A1fica-RTX-2060-Ventiladores/dp/B0BGCG8SGJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GPU AMD RX6600XT 8GB GDDR6 SPEEDSTER SWFT210 XFX RX66XT8DFDQ</t>
+          <t>PLACA DE VIDEO MSI GEFORCE RTX 3090 VENTUS 3X 24GB OC GDDR6X - 912-V388-016</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R$ 2.589,90</t>
+          <t>R$ 10.458,30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/RX6600XT-SPEEDSTER-SWFT210-XFX-RX66XT8DFDQ/dp/B09B17SQBS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-MSI-GEFORCE-VENTUS-GDDR6X/dp/B0B6GP72ZY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS TUF Gaming - GeForce RTX 3070, V2 OC Edition, LHR, 8GB GDDR6, Ray Tracing, DLSS</t>
+          <t>Placa de Vídeo Gigabyte - GeForce RTX 3050, 8GB GDDR6</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R$ 5.085,98</t>
+          <t>R$ 2.549,00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-Geforce-Gaming-256-bit-Tuf-rtx3070-o8g-v2-gaming/dp/B097TCX8QL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B09Q8Q5NCK?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ZOTAC Gaming RTX 3090 ArcticStorm GDDR6X, ZT-A30900Q-30P</t>
+          <t>GPU NV QUADRO RTX A2000 GDDR6 PNY VCNRTXA2000-PB, 2.7"x6.6"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R$ 16.197,97</t>
+          <t>R$ 3.411,75</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ZOTAC-Gaming-ArcticStorm-GDDR6X-ZT-A30900Q-30P/dp/B0966TC82X?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/QUADRO-A2000-GDDR6-PNY-VCNRTXA2000-PB/dp/B09KMMQW6M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO ASUS ROG-STRIX-RTX3070TI-O8G-GAMING</t>
+          <t>Placa de Vídeo Zotac Gaming - GeForce RTX 2060, Twin Edge, LHR, 6GB GDDR6, Preto</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>R$ 6.599,00</t>
+          <t>R$ 2.738,90</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-DE-VIDEO-ASUS-ROG-STRIX-RTX3070TI-O8G-GAMING/dp/B096SF185K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-Zotac-GeForce-192-BIT-ZT-T20600H-10M/dp/B07QC8RSZB?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Placa de Vdeo Palit GeForce RTX 3070 GamingPro LHR 8GB 256Bit GDDR6 - NE63070019P2-1041A-V1</t>
+          <t>Gpu Nv Gtx1660Ti 6Gb Gddr6, Gigabyte, Gv-N166Toc-6Gd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R$ 4.423,30</t>
+          <t>R$ 1.799,90</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Palit-GeForce-GamingPro-256Bit-NE63070019P2-1041A-V1/dp/B08LDS72P2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Gpu-Gtx1660Ti-Gddr6-Gigabyte-Gv-N166Toc-6Gd/dp/B07NWCMYMW?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO NVIDIA GEFORCE RTX 2060 6GB 192 BITS GDDR6 DUAL FAN GRAFFITI SERIES – PAX2060RTX6G192BDF – PCYES</t>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3080V2 ROG STRIX GAMING 10GB GDDR6X ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R$ 2.218,00</t>
+          <t>R$ 7.505,98</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-GEFORCE-GRAFFITI/dp/B0B59JMLR7?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ASUS-GEFORCE-3080V2-GAMING-ROG-STRIX-RTX3080-O10G-V2-GAMING/dp/B098324LLG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GPU NV RTX3080TI 12GB SG GDDR6X 384BITS GALAX 38IOM5MD99DD* (Lite Hash Rate)</t>
+          <t>Galax PROCESSADOR GRAFICO GEFORCE 35NSL8MD5YBP (GPU RTX 3050 1CLICK OC 8GB GDDR6)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R$ 7.832,00</t>
+          <t>R$ 1.999,00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/RTX3080TI-GDDR6X-384BITS-GALAX-38IOM5MD99DD/dp/B096V4D4RQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Galax-PROCESSADOR-GRAFICO-GEFORCE-35NSL8MD5YBP/dp/B0B1JKLXLH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -1184,17 +1184,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Zotac Gaming - GeForce RTX 2060, Twin Edge, LHR, 6GB GDDR6, Preto</t>
+          <t>ZOTAC Gaming RTX 3090 ArcticStorm GDDR6X, ZT-A30900Q-30P</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>R$ 2.547,17</t>
+          <t>R$ 16.197,97</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-Zotac-GeForce-192-BIT-ZT-T20600H-10M/dp/B07QC8RSZB?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ZOTAC-Gaming-ArcticStorm-GDDR6X-ZT-A30900Q-30P/dp/B0966TC82X?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>

--- a/Projects/PriceComparison/ExcelFiles/AmzProd.xlsx
+++ b/Projects/PriceComparison/ExcelFiles/AmzProd.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R$ 2.400,00</t>
+          <t>R$ 2.599,90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R$ 1.899,00</t>
+          <t>R$ 2.059,00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -504,238 +504,238 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Galax Placa de Vídeo - GeForce RTX 3070 Ti, 1-Click OC, 8GB GDDR6X, 37ISM6MD4COC</t>
+          <t>Placa de Vídeo GALAX - GeForce RTX 3070, 1-Click OC, 8GB GDDR6, DLSS, LHR, Ray Tracing</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R$ 4.599,00</t>
+          <t>R$ 3.999,00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09N7QXNW1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09KC8B966?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Placa de Vídeo NVIDIA GeForce RTX 2060 Super 8GB GDDR6 PCI-E 3 26ISL6HP68LD Galax</t>
+          <t>Galax Placa de Vídeo - GeForce RTX 3070 Ti, 1-Click OC, 8GB GDDR6X, 37ISM6MD4COC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R$ 2.459,90</t>
+          <t>R$ 4.599,00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-26ISL6HP68LD-Galax/dp/B0899JHJ6K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09N7QXNW1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Placa de Vídeo GALAX - GeForce RTX 3070, 1-Click OC, 8GB GDDR6, DLSS, LHR, Ray Tracing</t>
+          <t>Galax GPU NV RTX2060 12GB PLUS 1CLICK OC G6 192B 26NRL7HP68NC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R$ 3.399,15</t>
+          <t>R$ 2.254,90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09KC8B966?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Galax-RTX2060-12GB-1CLICK-26NRL7HP68NC/dp/B09T2GYN3F?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Galax GPU NV RTX2060 12GB PLUS 1CLICK OC G6 192B 26NRL7HP68NC</t>
+          <t>Placa de Vídeo NVIDIA GeForce RTX 2060 Super 8GB GDDR6 PCI-E 3 26ISL6HP68LD Galax</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R$ 2.299,90</t>
+          <t>R$ 2.424,90</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Galax-RTX2060-12GB-1CLICK-26NRL7HP68NC/dp/B09T2GYN3F?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-26ISL6HP68LD-Galax/dp/B0899JHJ6K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO GIGABYTE GEFORCE RTX 2060 12GB GDDR6 - GV-N2060D6-12GD, 3304807593</t>
+          <t>Placa de Vídeo ASUS - GeForce RTX 3070, 8GB GDDR6, LHR, DLSS, Ray Tracing</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R$ 2.760,32</t>
+          <t>R$ 4.399,98</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-GIGABYTE-GEFORCE-GDDR6/dp/B09Q8PTQMH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-NVIDIA-GeForce-DUAL-RTX3070-O8G/dp/B098JXFQD6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO PALIT GEFORCE RTX 3060 DUAL 12GB GDDR6 192 BITS - NE63060019K9-190AD</t>
+          <t>ZOTAC Placa gráfica Gaming GeForce RTX 3070 Ti Trinity OC NVIDIA 8GB GDDR6X, ZT-A30710J-10P</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R$ 2.699,00</t>
+          <t>R$ 6.773,83</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-Gaming-GeForce-Trinity-ZT-A30710J-10P/dp/B09832YFZF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO GALAX GEFORCE RTX 3070 EX (1-CLICK OC) 8GB GDDR6 DE 256 BITS - 37NSL6MD2VXI</t>
+          <t>Galax Placa de Vídeo - GeForce RTX 3080 Serious Gaming, 10GB, LHR, RGB, DLSS, Ray Tracing, 38NWM3MD99RG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R$ 3.999,99</t>
+          <t>R$ 6.299,90</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-GALAX-GEFORCE-1-CLICK/dp/B0B1L5KVP8?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-Serious/dp/B09BB3DM7M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MSI Placa de vídeo Gaming GeForce RTX 3060 12GB 15 Gbps GDRR6 192-Bit HDMI/DP PCIe 4 Torx Triple Fan Ampere OC (RTX 3060 Ventus 3X 12G OC)</t>
+          <t>PLACA DE VIDEO GIGABYTE GEFORCE RTX 2060 12GB GDDR6 - GV-N2060D6-12GD, 3304807593</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R$ 2.949,00</t>
+          <t>R$ 2.775,50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/MSI-RTX-3060-Ventus-12G/dp/B08WTFG5BX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-GIGABYTE-GEFORCE-GDDR6/dp/B09Q8PTQMH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS TUF Gaming - GeForce RTX 3070, V2 OC Edition, LHR, 8GB GDDR6, Ray Tracing, DLSS</t>
+          <t>PLACA DE VIDEO PALIT GEFORCE RTX 3060 DUAL 12GB GDDR6 192 BITS - NE63060019K9-190AD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R$ 4.227,26</t>
+          <t>R$ 2.699,00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-Geforce-Gaming-256-bit-Tuf-rtx3070-o8g-v2-gaming/dp/B097TCX8QL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-PALIT-GEFORCE-GDDR6/dp/B08WR6DRQQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Placa de Vídeo GALAX - GeForce RTX 3060 Ti, 1-Click OC, 8GB GDDR6 LHR</t>
+          <t>PLACA DE VIDEO GALAX GEFORCE RTX 3070 EX (1-CLICK OC) 8GB GDDR6 DE 256 BITS - 37NSL6MD2VXI</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>R$ 3.199,00</t>
+          <t>R$ 3.999,99</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09BB3V61K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-GALAX-GEFORCE-1-CLICK/dp/B0B1L5KVP8?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Galax PLACA DE VIDEO GEFORCE RTX 2060 PLUS (1 CLICK - OC ) 6GB GDDR6 192BITS</t>
+          <t>Placa de Vídeo ASUS TUF Gaming - GeForce RTX 3070, V2 OC Edition, LHR, 8GB GDDR6, Ray Tracing, DLSS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>R$ 1.979,00</t>
+          <t>R$ 5.085,98</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Galax-GEFORCE-RTX-2060-PLUS/dp/B08M9QJJTT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-Geforce-Gaming-256-bit-Tuf-rtx3070-o8g-v2-gaming/dp/B097TCX8QL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MLLSE Placa gráfica 2060 - GDDR6 6GB 192 bits Ventiladores Duplos (RTX 2060 6GB)</t>
+          <t>Galax PLACA DE VIDEO GEFORCE RTX 2060 PLUS (1 CLICK - OC ) 6GB GDDR6 192BITS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R$ 1.529,00</t>
+          <t>R$ 1.979,00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/MLLSE-Placa-gr%C3%A1fica-2060-Ventiladores/dp/B0BC47DQYL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Galax-GEFORCE-RTX-2060-PLUS/dp/B08M9QJJTT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GPU AMD RX6600XT 8GB GDDR6 SPEEDSTER SWFT210 XFX RX66XT8DFDQ</t>
+          <t>Placa de Vídeo GALAX - GeForce RTX 3060 Ti, 1-Click OC, 8GB GDDR6 LHR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R$ 2.589,90</t>
+          <t>R$ 3.169,90</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/RX6600XT-SPEEDSTER-SWFT210-XFX-RX66XT8DFDQ/dp/B09B17SQBS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B09BB3V61K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Galax Placa de Vídeo - GeForce RTX 3080 Serious Gaming, 10GB, LHR, RGB, DLSS, Ray Tracing, 38NWM3MD99RG</t>
+          <t>Placa de Vídeo ASUS - GeForce KO-RTX 3060 Ti, V2 OC Gaming LHR, 8GB GDDR6, Ray Tracing, DLSS, RGB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>R$ 6.299,90</t>
+          <t>R$ 3.975,00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-Serious/dp/B09BB3DM7M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-GeForce-Tracing/dp/B09F5ZH3JP?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -759,34 +759,34 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZOTAC Placa gráfica Gaming GeForce RTX 3070 Ti Trinity OC NVIDIA 8GB GDDR6X, ZT-A30710J-10P</t>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3050 OC 8G GDDR6 128BITs DUAL-RTX3050-O8G, PRETO, 90YV0HH0-M0NA00</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>R$ 6.773,83</t>
+          <t>R$ 2.318,11</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/gr%C3%A1fica-Gaming-GeForce-Trinity-ZT-A30710J-10P/dp/B09832YFZF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ASUS-GEFORCE-128BITs-DUAL-RTX3050-O8G-90YV0HH0-M0NA00/dp/B09QMG6FZX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS - GeForce RTX 3070, 8GB GDDR6, LHR, DLSS, Ray Tracing</t>
+          <t>MLLSE Placa gráfica 2060 - GDDR6 6GB 192 bits Ventiladores Duplos (RTX 2060 6GB)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>R$ 4.399,99</t>
+          <t>R$ 1.529,00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-NVIDIA-GeForce-DUAL-RTX3070-O8G/dp/B098JXFQD6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/MLLSE-Placa-gr%C3%A1fica-2060-Ventiladores/dp/B0BC47DQYL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -810,51 +810,51 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3050 OC 8G GDDR6 128BITs DUAL-RTX3050-O8G, PRETO, 90YV0HH0-M0NA00</t>
+          <t>Powercolor Placa de Vídeo AMD Radeon RX 6700 XT 12GB DDR6 192 Bits - AXRX 6700XT 12GBD6-3</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>R$ 2.431,00</t>
+          <t>R$ 3.494,00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ASUS-GEFORCE-128BITs-DUAL-RTX3050-O8G-90YV0HH0-M0NA00/dp/B09QMG6FZX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Power-Color-Radeon/dp/B08Y934HZQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ASUS Placa De Video Geforce Rtx 3060ti Dual Oc V2 8gb Gddr6 256-bit Dual-rtx3060ti-o8g-v2, 90YV0G1J-M0NA00</t>
+          <t>Placa de Vídeo Gigabyte - GeForce RTX 2060, D6, 6G GDDR6</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>R$ 4.499,90</t>
+          <t>R$ 3.149,00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-Geforce-3060ti-256-bit-Dual-rtx3060ti-o8g-v2/dp/B098R4K8PV?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B095SWPGVR?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Powercolor Placa de Vídeo AMD Radeon RX 6700 XT 12GB DDR6 192 Bits - AXRX 6700XT 12GBD6-3</t>
+          <t>Gainward GPU NV RTX3050 8GB GDDR6 GHOST 128BITS 63050019P1-190AB, 471056224-3222</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>R$ 4.016,24</t>
+          <t>R$ 2.078,63</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Power-Color-Radeon/dp/B08Y934HZQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Gainward-RTX3050-128BITS-63050019P1-190AB-471056224-3222/dp/B09R3WX3SS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -878,153 +878,153 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gainward GPU NV RTX3050 8GB GDDR6 GHOST 128BITS 63050019P1-190AB, 471056224-3222</t>
+          <t>PLACA DE VIDEO ASUS ROG-STRIX-RTX3070TI-O8G-GAMING</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>R$ 2.078,63</t>
+          <t>R$ 6.599,00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Gainward-RTX3050-128BITS-63050019P1-190AB-471056224-3222/dp/B09R3WX3SS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-DE-VIDEO-ASUS-ROG-STRIX-RTX3070TI-O8G-GAMING/dp/B096SF185K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS - GeForce KO-RTX 3060, V2 OC Gaming, LHR, 12 GB GDDR6, Ray Tracing, DLSS, RGB</t>
+          <t>Placa de Vídeo Gigabyte - GeForce RTX 3050, 8GB GDDR6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>R$ 3.515,77</t>
+          <t>R$ 2.549,00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-GeForce-Tracing/dp/B09BQDJBB1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B09Q8Q5NCK?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Gainward - GeForce RTX 3070 Phoenix, 8GB GDDR6</t>
+          <t>EVGA GeForce RTX 3090 FTW3 Ultra Gaming Placa gráfica, 24 GB GDDR6X, tecnologia iCX3, ARGB LED, placa traseira de metal, 24G-P5-3987-KR</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>R$ 4.340,00</t>
+          <t>R$ 13.000,00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/GeForce-Phoenix-NE63070019P2-1041X-Gainward-4710562241990/dp/B08LQ4XF6Z?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/EVGA-GeForce-tecnologia-traseira-24G-P5-3987-KR/dp/B08J5F3G18?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ZOTAC GeForce® RTX 3080 TRINTY LHR</t>
+          <t>PLACA DE VIDEO, PALIT, GEFORCE, RTX 3080, GAMINGPRO, 10GB, GDDR6X, 320 BITS, LHR - NED3080019IA-132AA V1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>R$ 10.832,71</t>
+          <t>R$ 6.844,29</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ZOTAC-GeForce%C2%AE-RTX-3080-TRINTY/dp/B09QG17M2Q?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-GEFORCE-GAMINGPRO-GDDR6X/dp/B08JCVWTQY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO ASUS ROG-STRIX-RTX3070TI-O8G-GAMING</t>
+          <t>ZOTAC GeForce® RTX 3080 TRINTY LHR</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>R$ 6.159,90</t>
+          <t>R$ 10.832,71</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-DE-VIDEO-ASUS-ROG-STRIX-RTX3070TI-O8G-GAMING/dp/B096SF185K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ZOTAC-GeForce%C2%AE-RTX-3080-TRINTY/dp/B09QG17M2Q?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO MSI GEFORCE RTX 3060 VENTUS 3X 12GB OC GDDR6 - 912-V397-480</t>
+          <t>PLACA DE VIDEO MSI GEFORCE RTX 3090 VENTUS 3X 24GB OC GDDR6X - 912-V388-016</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>R$ 2.919,44</t>
+          <t>R$ 10.458,30</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-VIDEO-MSI-GEFORCE-VENTUS/dp/B08WRP83LN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-MSI-GEFORCE-VENTUS-GDDR6X/dp/B0B6GP72ZY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EVGA GeForce RTX 3090 FTW3 Ultra Gaming Placa gráfica, 24 GB GDDR6X, tecnologia iCX3, ARGB LED, placa traseira de metal, 24G-P5-3987-KR</t>
+          <t>Placa de Vídeo ASUS Phoenix - GeForce RTX 3050 8GB GDDR6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>R$ 13.000,00</t>
+          <t>R$ 2.599,00</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/EVGA-GeForce-tecnologia-traseira-24G-P5-3987-KR/dp/B08J5F3G18?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-Phoenix-GeForce/dp/B09R27YD4T?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Placa de Vídeo ASUS AMD Radeon RX 6800 - TUF-RX6800XT-O16G-GAMING</t>
+          <t>Placa de Vídeo ASUS TUF Gaming - GeForce RTX 3070 Ti OC, LHR, 8GB, GDDR6X, DLSS, Ray Tracing</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>R$ 4.950,21</t>
+          <t>R$ 5.999,00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-Radeon-TUF-RX6800XT-O16G-GAMING/dp/B08QVRZH3C?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/ASUS-GEFORCE-GDDR6X-256-BIT-TUF-RTX3070TI-O8G-GAMING/dp/B0971D8FB4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Gigabyte - GeForce RTX 2060, D6, 6G GDDR6</t>
+          <t>Placa de Vídeo Galax GeForce GTX 1660 Super Dual 1-Click OC, 6GB GDDR6 192Bit-60SRL7DSY91S</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R$ 3.149,00</t>
+          <t>R$ 1.785,98</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B095SWPGVR?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-NVIDIA-GeForce-60SRL7DSY91S/dp/B0816YTVQC?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -1048,51 +1048,51 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO MSI GEFORCE RTX 3090 VENTUS 3X 24GB OC GDDR6X - 912-V388-016</t>
+          <t>MSI Placa de vídeo Gaming GeForce RTX 3080 LHR 10GB GDRR6X 320-Bit HDMI/DP Nvlink Torx Fan 3 Ampere Architecture OC (RTX 3080 Ventus 3X Plus 10G OC LHR)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>R$ 10.458,30</t>
+          <t>R$ 6.299,90</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/PLACA-MSI-GEFORCE-VENTUS-GDDR6X/dp/B0B6GP72ZY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/MSI-RTX-3080-LHR-10G/dp/B09FSWGS7L?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Placa de Vídeo Gigabyte - GeForce RTX 3050, 8GB GDDR6</t>
+          <t>Gpu Nv Gtx1660Ti 6Gb Gddr6, Gigabyte, Gv-N166Toc-6Gd</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R$ 2.549,00</t>
+          <t>R$ 1.799,90</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-GDDR6/dp/B09Q8Q5NCK?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Gpu-Gtx1660Ti-Gddr6-Gigabyte-Gv-N166Toc-6Gd/dp/B07NWCMYMW?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GPU NV QUADRO RTX A2000 GDDR6 PNY VCNRTXA2000-PB, 2.7"x6.6"</t>
+          <t>Placa de Vídeo Gainward - GeForce RTX 3080 Ti Phoenix, LHR, 12GB GDDR6X, DLSS, Ray Tracing</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>R$ 3.411,75</t>
+          <t>R$ 8.990,00</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/QUADRO-A2000-GDDR6-PNY-VCNRTXA2000-PB/dp/B09KMMQW6M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gainward-GeForce-Phoenix/dp/B0967B3DN6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
@@ -1116,85 +1116,3383 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gpu Nv Gtx1660Ti 6Gb Gddr6, Gigabyte, Gv-N166Toc-6Gd</t>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3080 TI 12GB GDDR6X 384 BITS - TUF-RTX3080TI-12G-GAMING</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>R$ 1.799,90</t>
+          <t>R$ 11.063,67</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Gpu-Gtx1660Ti-Gddr6-Gigabyte-Gv-N166Toc-6Gd/dp/B07NWCMYMW?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/PLACA-ASUS-GEFORCE-GDDR6X-TUF-RTX3080TI-12G-GAMING/dp/B09BQ4GSYQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3080V2 ROG STRIX GAMING 10GB GDDR6X ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+          <t>GPU AMD RX6600XT 8GB GDDR6 SPEEDSTER SWFT210 XFX RX66XT8DFDQ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>R$ 7.505,98</t>
+          <t>R$ 2.729,90</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/ASUS-GEFORCE-3080V2-GAMING-ROG-STRIX-RTX3080-O10G-V2-GAMING/dp/B098324LLG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/RX6600XT-SPEEDSTER-SWFT210-XFX-RX66XT8DFDQ/dp/B09B17SQBS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Galax PROCESSADOR GRAFICO GEFORCE 35NSL8MD5YBP (GPU RTX 3050 1CLICK OC 8GB GDDR6)</t>
+          <t>Placa de Vídeo Mllse RTX 3070 8GB 256Bit GDDR6 DLSS, LHR, Ray Tracing Placa Traseira de Metal (RTX 3070 8GB)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>R$ 1.999,00</t>
+          <t>R$ 3.159,00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/Galax-PROCESSADOR-GRAFICO-GEFORCE-35NSL8MD5YBP/dp/B0B1JKLXLH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-256Bit-Tracing-Traseira/dp/B0BDS444M4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MSI Placa de vídeo Gaming GeForce RTX 3080 LHR 10GB GDRR6X 320-Bit HDMI/DP Nvlink Torx Fan 3 Ampere Architecture OC (RTX 3080 Ventus 3X Plus 10G OC LHR)</t>
+          <t>Placa de Vídeo Gainward - GeForce GTX 3060 Ti, 8GB GDDR6, GHOST Series</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>R$ 6.299,90</t>
+          <t>R$ 3.299,00</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.amazon.com.br/MSI-RTX-3080-LHR-10G/dp/B09FSWGS7L?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gainward-GeForce-GDDR6/dp/B08PKZFRZB?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>Galax GPU NV RTX3080 12GB SG GDDR6X 384BITS LHR 38NOM5MD99SS</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>R$ 6.381,83</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Galax-RTX3080-GDDR6X-384BITS-38NOM5MD99SS/dp/B09Q4SND15?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3070TI 8GB PHOENIX G6X 256BITS GAINWARD NED307T019P2-1046X* (Lite Hash Rate)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>R$ 4.589,90</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3070TI-PHOENIX-256BITS-GAINWARD-NED307T019P2-1046X/dp/B096M898G1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Gainward - GeForce RTX 3070 Phoenix, 8GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>R$ 4.366,83</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GeForce-Phoenix-NE63070019P2-1041X-Gainward-4710562241990/dp/B08LQ4XF6Z?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>ZOTAC Gaming RTX 3090 ArcticStorm GDDR6X, ZT-A30900Q-30P</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>R$ 16.197,97</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://www.amazon.com.br/ZOTAC-Gaming-ArcticStorm-GDDR6X-ZT-A30900Q-30P/dp/B0966TC82X?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO MSI GEFORCE RTX 3060 VENTUS 3X 12GB OC GDDR6 - 912-V397-480</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>R$ 3.486,62</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-MSI-GEFORCE-VENTUS/dp/B08WRP83LN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3080V2 ROG STRIX GAMING 10GB GDDR6X ROG-STRIX-RTX3080-O10G-V2-GAMING</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>R$ 7.505,98</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-GEFORCE-3080V2-GAMING-ROG-STRIX-RTX3080-O10G-V2-GAMING/dp/B098324LLG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Galax PROCESSADOR GRAFICO GEFORCE 35NSL8MD5YBP (GPU RTX 3050 1CLICK OC 8GB GDDR6)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>R$ 1.999,00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Galax-PROCESSADOR-GRAFICO-GEFORCE-35NSL8MD5YBP/dp/B0B1JKLXLH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Galax GeForce RTX 3050 (1-Click OC) 8GB GDDR6 DP de 128 bits*3/HDMI</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>R$ 2.240,00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Galax-GeForce-3050-1-Click-GDDR6/dp/B09Q9BSN8X?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Placa gráfica MSI GeForce RTX 3090 Ventus 3X 24G OC - 24 GB GDDR6X - Largura do barramento 384 bits - DisplayPort - HDMI, G3090V3X24C</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>R$ 13.005,99</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-gr%C3%A1fica-GeForce-3090-Ventus/dp/B08HM661YM?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ZOTAC GeForce® RTX 3090Ti AMP EXTREME HOLO</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>R$ 14.599,90</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-GeForce%C2%AE-3090Ti-EXTREME-HOLO/dp/B09X3N1W96?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS TUF Gaming - GeForce GTX 1660 Super, 6GB GDDR6, OC edition</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>R$ 2.127,59</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-video-geforce-super-192bits/dp/B082GQNKRT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA GEFORCE RTX 2060 12GB GDDR6 192 BIT DUAL-FAN GRAFFITI SERIES – PAK206012GBD6DF – PCYES, Cor: Preta</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>R$ 2.790,76</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-NVIDIA-GEFORCE-DUAL-FAN-GRAFFITI/dp/B0B59PJSSY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO MSI VENTUS 3X RTX 3080 10GB OC GDDR6 320 BITS</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>R$ 6.580,99</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-MSI-VENTUS-GDDR6/dp/B09G35KBPF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Mllse Placa de vídeo RX580 8GB GDDR5 PCI Express X16 Com BIOS Para Jogos DP/HDMI/DVI Saída de 60Hz Resolução 4K Ventiladores Duplos de Refrigeração (RX 580 8GB)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>R$ 899,00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Express-Resolu%C3%A7%C3%A3o-Ventiladores-Duplos-Refrigera%C3%A7%C3%A3o/dp/B0BCJYX4RT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ASUS Placa De Video Geforce Rtx 3060ti Dual Oc V2 8gb Gddr6 256-bit Dual-rtx3060ti-o8g-v2, 90YV0G1J-M0NA00</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>R$ 4.314,34</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Geforce-3060ti-256-bit-Dual-rtx3060ti-o8g-v2/dp/B098R4K8PV?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Asus ROG STRIX RTX 3080 Ti O12G Gaming LHR, 19Gbps, 12GB GDDR6X, Ray Tracing, DLSS - 90YV0GT1-M0NM00</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>R$ 11.844,11</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Gaming-19Gbps-GDDR6X-Tracing/dp/B09B154F29?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3080TI 12GB SG GDDR6X 384BITS GALAX 38IOM5MD99DD* (Lite Hash Rate)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>R$ 7.832,00</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3080TI-GDDR6X-384BITS-GALAX-38IOM5MD99DD/dp/B096V4D4RQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Gainward - GeForce GTX 1660 Ti, 6GB GDDR6, GHOST Series</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>R$ 1.965,60</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gainward-GeForce-GDDR6/dp/B099Y23T79?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MSI Placa de vídeo Gaming GeForce RTX 3090 Ti 24GB GDRR6X 384-Bit HDMI/DP Nvlink Tri-Frozr Ampere Architecture OC (RTX 3090 Ti SUPRIM X 24G)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>R$ 14.128,00</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GeForce-RTX-SUPRIM-24G/dp/B09R9JPVK9?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo GALAX - GeForce RTX 2060, 1-Click OC, 6GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>R$ 3.299,00</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GALAX-GeForce-1-Click-192-Bit-26NRL7HPX7OC/dp/B07NF7KB62?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Placa gráfica ASUS TUF Gaming AMD Radeon RX 6900 XT OC Edition (PCIe 4.0, 16 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, rolamentos de ventilador de esfera dupla, cobertura totalmente em alumínio, moldura reforçada, GPU Tweak II)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>R$ 28.980,00</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-DisplayPort-rolamentos-ventilador-totalmente/dp/B08R81J62G?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Placa de Video Colorful iGame GeForce RTX 3060 Ti Vulcan OC LHR 8GB GDDR6 256bit COLORFUL</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>R$ 4.807,81</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Colorful-GeForce-Vulcan-256bit-COLORFUL/dp/B09N93GDB3?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GPU NV QUADRO RTX A2000 GDDR6 PNY VCNRTXA2000-PB, 2.7"x6.6"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>R$ 3.294,11</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/QUADRO-A2000-GDDR6-PNY-VCNRTXA2000-PB/dp/B09KMMQW6M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PROCESSADOR GRAFICO MSI GEFORCE912-V397-484 (GPU RTX 3060 VENTUS 2X 12GB GDDR6)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>R$ 4.392,68</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PROCESSADOR-GRAFICO-MSI-GEFORCE912-V397-484-VENTUS/dp/B08WHJFYM8?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gainward GPU NV RTX2060 12GB GHOST GDDR6 192BITS NE62060018K9-1160L</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>R$ 2.354,90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gainward-RTX2060-GHOST-192BITS-NE62060018K9-1160L/dp/B09NVMQGHP?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo GeForce RTX 3070 Ti Eagle OC 8G, sistema de refrigeração WINDFORCE 3X, 8GB 256-bit GDDR6X, GV-N307TEAGLE OC-8GD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>R$ 7.201,00</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-resfriamento-WINDFORCE-GV-N307TEAGLE-OC-8GD/dp/B097GP3BYG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS - GeForce KO-RTX 3060, V2 OC Gaming, LHR, 12 GB GDDR6, Ray Tracing, DLSS, RGB</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>R$ 3.515,77</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-GeForce-Tracing/dp/B09BQDJBB1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA QUADRO - RTX A2000 12GB ECC GDDR6 192 BITS (4X MDP) - VCNRTXA200012GB-PB – PNY, Cor: Preto</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>R$ 5.449,90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-QUADRO-VCNRTXA200012GB-PB/dp/B09SJ2BZ85?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3080 OC TUF GAMING V2 10GB GDDR6X 320-BIT TUF-RTX3080-O10G-V2-GAMING</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>R$ 7.982,98</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GeForce-GDDR6X-TUF-RTX3080-O10G-V2/dp/B099991CDN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GPU NV RTX2060 6GB DDR6 VENTUS GP OC MSI 912-V375-808, 912-V375-623</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>R$ 3.214,00</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX2060-VENTUS-MSI-912-V375-808-912-V375-623/dp/B092CRNNSG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA QUADRO - RTX A4000 8GB GDDR6 256 BITS – VCNRTXA4000-PB – PNY, Preto</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>R$ 10.399,99</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-QUADRO-VCNRTXA4000-PB/dp/B09G21MBW2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Placa de Video Msi Geforce Rtx 3050 Ventus 2x, 8gb, Gddr6, 128-bit, 912-v397-448</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>R$ 2.311,87</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Geforce-Ventus-128-bit-912-v397-448/dp/B09Q31PQ31?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Placa de Vdeo Palit GeForce RTX 3070 GamingPro LHR 8GB 256Bit GDDR6 - NE63070019P2-1041A-V1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>R$ 4.399,90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Palit-GeForce-GamingPro-256Bit-NE63070019P2-1041A-V1/dp/B08LDS72P2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>GPU AMD RX6700XT 12GB GDDR6 SPEEDSTER QICK319 XFX RX-67XTYPBDP</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>R$ 3.759,90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RX6700XT-SPEEDSTER-QICK319-XFX-RX-67XTYPBDP/dp/B091ZKN2RV?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GPU NV GTX1650 VENTUS XS OC 4GB 128BIT DDR6 MSI 912-V809-3445</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>R$ 1.574,90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Geforce-Ventus-128-bit-912-v809-3445/dp/B089YYRWZ1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Zotac Gaming - GeForce RTX 3060 Ti, Twin Edge, LHR, 8GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>R$ 4.099,00</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Zotac-Gaming-GeForce/dp/B09BP1827M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Carte Graphique Nvidia Palit GeForce RTX 3080 Ti GameRock OC 12Go</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>R$ 8.999,90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Graphique-Nvidia-Palit-GeForce-GameRock/dp/B098345DGF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo AORUS GeForce RTX 3070 Ti Master 8G, refrigeração máxima coberta, 8GB 256-bit GDDR6X, GV-N307TAORUS M-8GD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>R$ 8.999,00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-GeForce-resfriamento-GV-N307TAORUS-M-8GD/dp/B097GMHNCT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Carte Graphique Nvidia Zotac GeForce RTX 3060 Ti Twin Edge OC LHR 8Go</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>R$ 5.091,58</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Carte-Graphique-Nvidia-Zotac-GeForce/dp/B097QC2M42?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ASUS Placa de Vídeo ROG-STRIX-RTX3090-O24G 90YV0F93M0NA00I"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>R$ 30.000,00</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-GDDR6X-ROG-STRIX-RTX3090-O24G-GAMING/dp/B099P1GHYQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo GeForce RTX 3080 Ti Gaming OC 12G, 3x ventoinhas WINDFORCE, 12GB 384-Bit GDDR6X, GV-N308TGAMING OC-12GD</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>R$ 16.183,91</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-ventiladores-WINDFORCE-GV-N308TGAMING-OC-12GD/dp/B083HZGMWZ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Palit NVIDIA GeForce RTX 3080 TI GamingPro, 12GB, GDDR6X, 384 BITS, LHR, HDMI/DP - NED308T019KB-132AA</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>R$ 9.397,38</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Palit-NVIDIA-GeForce-GamingPro-GDDR6X/dp/B096KVBBHQ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Mllse GeForce RTX 3070 Placa de Vídeo 3x Ventoinhas 8 GB GDDR6 RGB LED Placa Traseira de Metal (RTX 3070 8GB-RGB)</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>R$ 3.390,20</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Mllse-GeForce-Ventoinhas-Traseira-8GB-RGB/dp/B0BGJBYS6K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA GEFORCE RTX 2060 GDDR6 6GB 192 DUAL FAN - FULL SIZE- GRAFFITI SERIES – PA2060RTX6GDF – PCYES</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>R$ 3.001,04</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-GEFORCE-GDDR6/dp/B09X82V3DK?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA GEFORCE GT 730 GDDR5 4GB 64BITS LOW PROFILE - PCYES</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>R$ 1.276,60</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-NVIDIA-GEFORCE-64BITS-PROFILE/dp/B09HV9MFRK?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>PLACA DE VÍDEO, PALIT, NVIDIA, GEFORCE, RTX 3080, GAMINGPRO, 12GB, GDDR6X, 384bit, 3-DP, HDMI, LHR, NED3080019KB-132AA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>R$ 6.799,90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/NVIDIA-GEFORCE-GAMINGPRO-GDDR6X-NED3080019KB-132AA/dp/B09QD6G6L9?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>EVGA GeForce RTX 3070 Ti XC3 Ultra Gaming, 08G-P5-3785-KL, 8GB GDDR6X, refrigeração iCX3, LED ARGB, placa traseira de metal</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>R$ 6.449,00</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GeForce-08G-P5-3785-KL-Cooling-traseira/dp/B097Z8YWW1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ASUS Placa de vídeo para jogos NVIDIA GeForce RTX 3060 V2 OC Edition (PCIe 4.0, 12 GB GDDR6, HDMI 2.1, DisplayPort 1.4a, Axial-tech Fan Design, 2.7 compartimentos, Super Alloy Power II, GPU Tweak II)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>R$ 5.147,00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-GeForce-DisplayPort-Axial-tech-compartimentos/dp/B0985Z47C8?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS AMD Radeon RX 6800 - TUF-RX6800XT-O16G-GAMING</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>R$ 5.299,00</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-Radeon-TUF-RX6800XT-O16G-GAMING/dp/B08QVRZH3C?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo GALAX - GeForce GTX 1660 OC, 6GB GDDR5</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>R$ 1.563,99</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-NVIDIA-1660-GALAX/dp/B07Q1358K1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Gigabyte - GeForce RTX 2060, WindForce OC, 12GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>R$ 2.732,03</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gigabyte-GeForce-WindForce/dp/B09Q8TSJCW?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ASUS, Placa de Video TUF-RTX3090-O24G-GAMING 24GB 24GB GDDR6X</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>R$ 11.890,00</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-Placa-Video-TUF-RTX3090-O24G-GAMING-GDDR6X/dp/B08HN5B8FJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>PNY Placa gráfica GeForce RTX 3080 Ti 12GB XLR8 Gaming Revel Epic-X RGB Triple Fan</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>R$ 10.499,00</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PNY-gr%C3%A1fica-GeForce-Gaming-Epic-X/dp/B0968PSVPH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MSI Placa de Video Geforce Rtx 3060 Gaming X, 12gb, Gddr6, 192-bit, 912-v397-019, Modelo: V397-019R</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>R$ 3.699,00</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-Geforce-Gaming-192-bit-912-v397-019/dp/B08WHML7GL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Placa gráfica de computador RTX2060 6 GB GDDR6 192 bits, placa gráfica de jogos PCI Express 3.0 1365 MHz/10500 MHz MHz, duas ventoinhas GPU independente para jogos de computador desktop com HDMI, inte</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>R$ 1.563,86</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-computador-RTX2060-ventoinhas-independente/dp/B0BBRV9Z8J?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Gainward GPU NV RTX2060 8GB SUPER GHOST G6 256B NE6206S018P2-1160X-1, 471056224-2577</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>R$ 2.429,90</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gainward-RTX2060-SUPER-NE6206S018P2-1160X-1-471056224-2577/dp/B0966667DJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3080 12GB PHANTOM GDDR6X 384B GAINWARD NED3080019KB-1020M</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>R$ 6.199,00</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3080-PHANTOM-GDDR6X-GAINWARD-NED3080019KB-1020M/dp/B09QSPMM52?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO EVGA GEFORCE RTX 3060TI XC GAMING 8GB GDDR6 256BIT 08G-P5-3663-KL, Preta</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>R$ 4.790,00</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GEFORCE-3060TI-GAMING-08G-P5-3663-KL/dp/B098PB1K97?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Asus GeForce RTX 3080 - 10GB GDDR6X 320 bits TUF Gaming</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>R$ 13.056,93</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Asus-GeForce-3080/dp/B09997Z9SZ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3070 8GB GDDR6X VENTUS 2X OC MSI 912-V390-280, 912-V390-405</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>R$ 4.705,87</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3070-GDDR6X-MSI-912-V390-280-912-V390-405/dp/B096SL42WP?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>51Risc Placa de Vídeo RTX 2060 Super - 8GB GDDR6 256Bit PCI Express 3.0x16 RTX2060S GPU</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>R$ 1.829,00</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/51Risc-Placa-V%C3%ADdeo-2060-Super/dp/B0BG8RDYTX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ZOTAC GeForce RTX 3080 AMP HOLO LHR, ZT-A30800F-10PLHR</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>R$ 8.828,22</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-GeForce-3080-HOLO-ZT-A30800F-10PLHR/dp/B097QDH3VZ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MSI Placa gráfica Gaming GeForce RTX 2060 6GB GDRR6 192-bit HDMI/DP Ray Tracing Turing Architecture VR Ready (RTX 2060 Ventus 6G OC)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>R$ 2.799,00</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GeForce-RTX-2060-VENTUS/dp/B07MC23VS4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo GeForce RTX 3090 Turbo 24G</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>R$ 24.405,90</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GeForce-3090-Turbo/dp/B08KHKDTSJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MSI Gaming GeForce RTX 3080 Ti 12GB GDRR6X 320-Bit HDMI/DP Nvlink Torx Fan 3 Ampere Architecture OC Placa Gráfica (RTX 3080 Ti Gaming X Trio 12G)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>R$ 20.081,76</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-Gaming-RTX-3080-Trio/dp/B095VZ6F73?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo GeForce RTX 3070 Ti Gaming OC 8G, sistema de refrigeração WINDFORCE 3X, 8GB 256-bit GDDR6X, GV-N307TGAMING OC-8GD</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>R$ 6.593,00</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-resfriamento-WINDFORCE-GV-N307TGAMING-OC-8GD/dp/B097G7RBSZ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Placa gráfica RTX2060, placa gráfica para jogos GDDR6 de 6 GB 192 bits placa gráfica HDMI 3DP com ventilador duplo com placa PCB, placa de vídeo 1365 MHz 10500 MHz PCIE 3.0 Desktop PC placa gráfica pa</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>R$ 1.563,74</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-gr%C3%A1fica-RTX2060-ventilador-Desktop/dp/B0BBTFNBKJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo GeForce RTX 3080 Vision OC 10G (REV2.0), 3X ventiladores WINDFORCE LHR, 10GB 320-bit GDDR6X, GV-N3080VISION OC-10GD REV2.0</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>R$ 9.399,00</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-ventiladores-WINDFORCE-GV-N3080VISION-OC-10GD/dp/B098TZX3NT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Placa de vídeo - NVIDIA GeForce RTX 3070 (8GB / PCI-E) - GIGABYTE Vision OC - GV-N3070VISION OC-8GD (rev. 2.0) LHR</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>R$ 5.411,75</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-v%C3%ADdeo-PCI-GIGABYTE-GV-N3070VISION/dp/B096Y3NSV3?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Gigabyte Placa de vídeo GeForce RTX 3050 Eagle OC 8G, 2X ventiladores WINDFORCE, 8GB GDDR6 128-bit GDDR6, GV-N3050EAGLE OC-8GD placa de vídeo</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>R$ 2.526,90</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gigabyte-ventiladores-WINDFORCE-GV-N3050EAGLE-OC-8GD/dp/B09QVYJC3S?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Placa de Video Colorful iGame GeForce RTX 3080 Ti Advanced OC-V 12GB GDDR6X 384bit COLORFUL</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>R$ 24.733,00</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Colorful-GeForce-Advanced-GDDR6X-COLORFUL/dp/B097LCRSQ6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Zotac NVIDIA GeForce RTX 3070 Ti Trinity 8GB GDDR6X Placa gráfica</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>R$ 6.913,68</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Zotac-NVIDIA-GeForce-Trinity-gr%C3%A1fica/dp/B096YB8B5G?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Galax PLACA DE VIDEO GEFORCE RTX 3050 EX 1-CLICK OC 8GB GDDRD6 - 35NSL8MD6YEX</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>R$ 2.299,90</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Galax-PLACA-GEFORCE-1-CLICK-GDDRD6/dp/B09RQW9656?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>ZOTAC GeForce RTX 3050 Twin Edge OC, ZT-A30500H-10M</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>R$ 3.159,31</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-GeForce-3050-Twin-ZT-A30500H-10M/dp/B09RFVFQW8?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>EVGA GeForce RTX 3070 XC3 Ultra Gaming, 08G-P5-3755-KL, 8GB GDDR6, iCX3 Cooling, ARGB LED, placa traseira de metal, LHR</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>R$ 10.245,27</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GeForce-08G-P5-3755-KL-Cooling-traseira/dp/B097S5ZY7K?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3070TI 8GB SG GDDR6X 256BITS GALAX 37ISM6MD4BSG* (Lite Hash Rate)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>R$ 7.923,33</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3070TI-GDDR6X-256BITS-GALAX-37ISM6MD4BSG/dp/B0979P53NG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Zotac NVIDIA GeForce RTX 3080 Trinity OC LHR 12GB GDDR6X Gaming Graphics Card</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>R$ 9.871,83</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Zotac-NVIDIA-GeForce-Trinity-Graphics/dp/B09QFSGW8T?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Palit NVIDIA GeForce RTX 3070 TI GameRock, 8GB, GDDR6X, 256bit, LHR, NED307T019P2-1047G</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>R$ 8.832,10</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Palit-NVIDIA-GeForce-GameRock-NED307T019P2-1047G/dp/B097RYSZRJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Palit NVIDIA GeForce RTX 3070 Ti GamingPro, 8GB, GDDR6X, 256bit, LHR, NED307T019P2-1046A</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>R$ 7.037,90</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Palit-RTX3070Ti-NED307T019P2-1046A/dp/B097RVF1LM?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ZOTAC GAMING GeForce GTX 1650 OC 4 GB GDDR6 128 bits placa gráfica para jogos, super compacta, ZT-T16520F-10L</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>R$ 2.599,96</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GAMING-GeForce-gr%C3%A1fica-compacta-ZT-T16520F-10L/dp/B0881YZJ45?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO EVGA GEFORCE RTX 3070TI FTW3 ULTRA GAMING 8GB GDDR6X 256BIT 08G-P5-3797-KL</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>R$ 6.499,00</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GEFORCE-3070TI-GAMING-08G-P5-3797-KL/dp/B096BB9Y9S?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS - GeForce KO-RTX 3070, V2 Gaming, LHR, 8GB GDDR6, Ray Tracing, DLSS, RGB</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>R$ 6.799,00</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-GeForce-Tracing/dp/B09FYKW4F9?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PNY Placa gráfica GeForce RTX™ 3070 Ti 8GB XLR8 Gaming Uprising Epic-X RGB™ Triple Fan</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>R$ 5.999,99</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PNY-gr%C3%A1fica-GeForce-Gaming-Uprising/dp/B0971Z2KH1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Quadro Branco, Stalo, Moldura de Madeira, 60x40 cm, UV MDF, Soft, Rosa, Pacote com 2, GeForce RTX 3050 VENTUS 2X 8G OC</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>R$ 3.300,00</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GeForce-RTX-3050-VENTUS-2X/dp/B09Q9SX3NY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3070 8GB PHOENIX GS G6 256B GAINWARD NE63070S19P2-1041X V1* (Lite Hash Rate)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>R$ 5.899,00</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3070-GAINWARD-PALIT-NE63070S19P21041X-2096/dp/B08LQBLGGZ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Palit - GeForce GTX 1050 Ti StormX, 4GB GDDR5</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>R$ 1.278,00</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Palit-GeForce-StormX/dp/B01M2ZC61B?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ZOTAC GeForce® RTX 3080 TRINTY OC White Edition LHR</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>R$ 8.708,62</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-GeForce%C2%AE-3080-TRINTY-White/dp/B09SYR9ZRN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Placa gráfica gtx 1050 ti, placa gráfica de vídeo 4 gb gddr5 pc original 128 bits com ventiladores de refrigeração pci express 3.0x16 placa gráfica de jogos de interface para computador</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>R$ 1.193,55</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/original-ventiladores-refrigera%C3%A7%C3%A3o-interface-computador/dp/B0B8PCBQVB?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MSI Placa de vídeo para jogos GeForce RTX 3060 Gaming Z Trio 12G – 12GB GDDR6, 1867 MHz, PCI Express Gen 4, 192 Bit, 3X DP v 1.4a, HDMI 2.1 (suporta 4K)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>R$ 4.484,90</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-Placa-v%C3%ADdeo-GeForce-Gaming/dp/B0957VL7H3?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>PowerColor Placa de vídeo para jogos Red Devil AMD Radeon RX 6900 XT Ultimate com memória GDDR6 de 16 GB, alimentada por AMD RDNA 2, HDMI 2.1</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>R$ 10.976,90</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PowerColor-gr%C3%A1fica-Ultimate-mem%C3%B3ria-alimentada/dp/B09258PCFS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Placa de video asus geforce rtx 3070 tuf gaming 8gb gddr6 256 bits- tuf-rtx3070-o8g-gaming</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>R$ 5.664,90</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-video-geforce-gaming-tuf-rtx3070-o8g-gaming/dp/B08LLG9KQT?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO AMD RADEON RX 550 4GB GDDR5 128 BITS SINGLE-FAN - GRAFFITI SERIES - PJRX550R5SF - PCYES</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>R$ 1.928,91</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-PCYes-RADEON-SINGLE-FAN/dp/B08PCC5R12?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>TUF-RTX3060-O12G-V2-GAMING // RTX3060, HDMI * 2, DP * 3.12G, D6</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>R$ 3.804,50</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/TUF-RTX3060-O12G-V2-GAMING-RTX3060-HDMI-DP-3-12G/dp/B0966689N3?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Placa de vídeo NVIDIA GeForce RTX 3060 Ti Founders Edition 8GB GDDR6 PCI Express 4.0</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>R$ 4.500,00</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-Founders-Express/dp/B08PW559LL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA QUADRO - T600 4GB GDDR6 128 BITS (4X MDP) – VCNT600-PORPB – PNY</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>R$ 1.789,00</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-QUADRO-VCNT600-PORPB/dp/B09K7YMMQF?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS - GeForce GTX 1650 OC Phoenix, 6GB GDDR5</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>R$ 2.249,99</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Video-GeForce-PH-GTX1660-O6G-Phoenix/dp/B07PGPR9H6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO AFOX RX 550 4GB GDDR5 128 BITS - AFRX550-4096D5H4-V6, AF6850-1024D5H5</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>R$ 1.135,79</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-AFOX-GDDR5-AFRX550-4096D5H4-V6/dp/B00E64WTEG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Gainward - GeForce RTX 3060, 12GB OC GD6 256-Bits, GHOST Series</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>R$ 3.194,00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Gainward-GeForce-256-Bits/dp/B08X4Y5RWY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ZOTAC Placa de vídeo Gaming GeForce RTX™ 3090 AMP Extreme Holo 24GB GDDR6X 384-bit 19,5 Gbps PCIE 4.0, HoloBlack, IceStorm 2.0 Advanced Cooling, Spectra 2.0 RGB Lighting, ZT-A30900B-10P</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>R$ 16.996,51</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/HoloBlack-IceStorm-Advanced-Lighting-ZT-A30900B-10P/dp/B0974YVB9D?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Placa gráfica RTX2060, placa gráfica de jogos GDDR6 6GB 1365MHz 10500MHz 192bit GPU com ventoinha dupla, placa gráfica de computador RTX2060, HDML, 3DP</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>R$ 1.563,76</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-RTX2060-10500MHz-ventoinha-computador/dp/B0BBWK76T4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3090 24GB SG GDDR6X 384BITS GALAX 39NSM5MD1GNA GALAXY MICROSYSTEMS</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>R$ 11.979,00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3090-24GB-SG-GDDR6X-39NSM5MD1GNA/dp/B08MDR1TGL?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>ASUS DUAL-RX6500XT-O4G</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>R$ 2.714,90</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-DUAL-RX6500XT-O4G/dp/B09QF8K9YD?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Palit RTX 3060 Ti Dual 8G GDDR6 Ray-Tracing Graphics Card, 4864 Core, 1410 MHz GPU, 1665 MHz Boost, 3 x DisplayPort, HDMI, LHR Card</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>R$ 4.038,98</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Palit-GDDR6-Ray-Tracing-Graphics-DisplayPort/dp/B08PFZ28CN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ZOTAC Placa de vídeo para jogos GeForce RTX 3060 Twin Edge OC 12GB GDDR6 192-bit 15 Gbps PCIE 4.0, refrigeração IceStorm 2.0, controle ativo do ventilador, congelamento ZT-A30600H-10M</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>R$ 4.653,19</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Icestorm-Refrigera%C3%A7%C3%A3o-Controlo-ventilador-ZT-A30600H-10M/dp/B08W8DGK3X?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>MSI Gaming GeForce RTX 3080 LHR 10GB GDRR6X 320-Bit HDMI/DP Nvlink Torx Fan 4 RGB Ampere Architecture OC Placa Gráfica (RTX 3080 Gaming Z Trio 10G LHR)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>R$ 8.668,92</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GeForce-RTX-3080-LHR/dp/B0995S7548?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa gráfica GeForce RTX 3060 Ti Eagle 8G (REV2.0), 2X ventiladores WINDFORCE LHR, 8GB 256-bit GDDR6, GV-N306TEAGLE-8GD REV2.0</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>R$ 8.599,99</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-gr%C3%A1fica-ventiladores-WINDFORCE-GV-N306TEAGLE-8GD/dp/B098PLFJ46?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Placa de Video Pny Quadro Rtx A2000, 6gb, Gddr6, 192-bit, Vcnrtxa2000-pb-nac</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>R$ 5.899,99</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Video-Quadro-192-bit-Vcnrtxa2000-pb-nac/dp/B09GRVRBJ8?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Placa de Vdeo Zotac GeForce GTX 1660 Super Twin Fan 6GB GDDR6 192bits ZT-T16620F-10L</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>R$ 2.803,06</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Zotac-GeForce-192bits-ZT-T16620F-10L/dp/B07YVHCD8Q?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>ZOTAC Placa gráfica Gaming GeForce RTX 3090 Trinity OC NVIDIA 24 GB GDDR6X</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>R$ 16.305,96</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-Gaming-GeForce-Trinity-NVIDIA/dp/B08TZD9SH9?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>ZOTAC GEFORCE RTX3080 Ti Trinity OC, ZT-A30810J-10P, Preto</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>R$ 11.712,47</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-GEFORCE-RTX3080-Trinity-ZT-A30810J-10P/dp/B0968M6446?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO EVGA GEFORCE RTX 3080 TI XC3 ULTRA GAMING 12GB GDDR6X 384-BIT 12G-P5-3955-KR</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>R$ 11.749,00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GEFORCE-GAMING-384-BIT-12G-P5-3955-KR/dp/B098K8LNKY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO POWER COLOR RX 6600 HELLHOUND 8GB GDDR6 128BIT AXRX 6600 8GBD6-3DHL</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>R$ 2.932,00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/6600-HELLHOUND-128BIT-AXRX-8GBD6-3DHL/dp/B09H3NX9HZ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>RTX 2060 6GB Placa Gráfica de Mineração para Jogos GDDR6 192bit 12NM, Placa de Vídeo de Desktop GPU RTX2060</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>R$ 1.950,00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX-2060-6GB-Gr%C3%A1fica-Minera%C3%A7%C3%A3o/dp/B0B2CTN57C?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>ASUS Placa gráfica para jogos ROG Strix NVIDIA GeForce RTX 3070 V2 White OC Edition (PCIe 4.0, 8GB GDDR6, LHR, HDMI 2.1, DisplayPort 1.4a, esquema de cor branca, design de ventilador axial, 2.9-Slot)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>R$ 9.999,00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-gr%C3%A1fica-DisplayPort-ventilador-2-9-Slot/dp/B09CFRMXQY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>PNY Placa gráfica GeForce RTX™ 3060 Ti 8GB XLR8 Gaming Revel Epic-X RGB™ Dual Fan LHR</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>R$ 3.649,90</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PNY-gr%C3%A1fica-GeForce-Gaming-Epic-X/dp/B0971XRQR4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Asus Tuf RX 6900 XT OC Edition 16GB GDDR6 256 BIT TUF-RX6900XT-O16G-GAMING</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>R$ 10.399,99</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-Asus-GDDR6-TUF-RX6900XT-O16G-GAMING/dp/B08BQX8VP3?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo AORUS Radeon RX 6900 XT Xtreme WaterFORCE WB 16G, sistema de resfriamento de bloco de água Waterforce, GDDR6 de 256 bits, GV-R69XTAORUSX WB-16GD</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>R$ 24.280,91</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/WaterFORCE-resfriamento-Waterforce-GV-R69XTAORUSX-WB-16GD/dp/B097FYBRXH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo AORUS Radeon RX 6900 XT Xtreme WaterFORCE WB 16G, sistema de resfriamento de bloco de água Waterforce, GDDR6 de 256 bits, GV-R69XTAORUSX WB-16GD</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>R$ 24.280,91</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/WaterFORCE-resfriamento-Waterforce-GV-R69XTAORUSX-WB-16GD/dp/B097FYBRXH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>MSI Placa de vídeo GeForce RTX 3060 Ti LHR 8GB GDRR6 256 bits HDMI/DP Torx Fan 3 Ampere Architecture OC (RTX 3060 Ti Ventus 3X 8G OC LHR)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>R$ 5.117,12</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-RTX-3060-LHR-Architecture/dp/B09BK9X9K9?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Placa De Vídeo MLLSE RTX 3060 12 GB GAMING GPU GDDR6 192 bits HDMI * 1 DP * 3 PCI Express 4.0 x16 Placa Gráfica (RTX 3060 12GB)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>R$ 2.499,00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GAMING-Express-Gr%C3%A1fica/dp/B0BDMJGQ83?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS Cerberus - GeForce GTX 1050 Ti, 4GB GDDR5, OC Edition</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>R$ 1.499,00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-CERBERUS-GTX1050TI-O4G-gr%C3%A1fica-GeForce-velocidade/dp/B078ZT646T?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA GEFORCE GTX 1050 TI 4GB GDDR5 128 BITS DUAL-FAN - GRAFFITI SERIES – PJGF1050TI4GB – PCYES</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>R$ 1.779,00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-GEFORCE-DUAL-FAN/dp/B09NDRMF7L?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA RTX 2060 OC 6GB GDDR6 192 BITS DUAL-FAN GRAFFITI SERIES - PPGF2060DR6192 PCYES</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>R$ 4.163,61</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-DUAL-FAN-GRAFFITI/dp/B08NWGKB16?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>PNY Placa de vídeo GeForce RTX™ 3080 10GB XLR8 Gaming UPRISING EPIC-X RGB™ Triple Fan</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>R$ 7.928,85</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PNY-gr%C3%A1fica-GeForce-UPRISING-VCG308010TFXMPB/dp/B08HBTJMLJ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO EVGA GEFORCE RTX 3060 XC GAMING GDDR6 12GB/192Bits PCI-E 4.0 3DP 12G-P5-3657-KR, Preta</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>R$ 3.790,00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GEFORCE-GAMING-192Bits-12G-P5-3657-KR/dp/B08XQWR62V?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3080 10GB HOF GDDR6X 320BITS GALAX 38NWM3MD3BJJ</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>R$ 8.390,00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3080-GDDR6X-320BITS-GALAX-38NWM3MD3BJJ/dp/B09LHY8BPN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3080 10GB PHOENIX GDDR6X 320B GAINWARD NED3080019IA132AX V1* (Lite Hash Rate)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>R$ 6.325,00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3080-PHOENIX-GDDR6X-GAINWARD-NED3080019IA132AX/dp/B08HVQZMXG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3060 12GB GDDR6 REVEL EPIC-X PNY VCG306012DFXPPB</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>R$ 3.099,00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3060-GDDR6-EPIC-X-PNY-VCG306012DFXPPB/dp/B08WRQ3JR1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Placa de video Gigabyte RTX 3060 EAGLE 12GB</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>R$ 3.100,00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-video-Gigabyte-3060-EAGLE/dp/B096YK45Q2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS AMD Radeon RX 6700 XT, 16 Gbps, 12GB GDDR6 - DUAL-RX6700XT-12G</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>R$ 3.499,00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-Radeon-GDDR6/dp/B08CS6Z8R9?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS TUF Gaming - GeForce GTX 1650, 4GB DDR6</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>R$ 1.667,06</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-TUF-GTX1650-4GD6-GAMING/dp/B087XNTFDD?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3070TI TUF GAMING 8GB GDDR6X 256BIT TUF-RTX3070TI-8G-GAMING</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>R$ 6.787,45</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-GEFORCE-GDDR6X-256-BIT-TUF-RTX3070TI-8G-GAMING/dp/B0971JTDLY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa gráfica GeForce RTX 3060 Ti Eagle 8G, 2 ventiladores WINDFORCE 8GB, 256-Bit GDDR6, GV-N306TEAGLE-8GD</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>R$ 8.599,99</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-GIGABYTE-ventoinhas-WINDFORCE-GV-N306TEAGLE-8GD/dp/B08NYNJ6RC?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Staright gráfica para jogos RX6800-16G D6 PB com memória 16G / 256bit / GDDR6 3 ventiladores de tamanho grande traseira de metal luz respiratória</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>R$ 12.497,07</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Staright-RX6800-16G-ventiladores-traseira-respirat%C3%B3ria/dp/B09Z6JT8SW?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>ASUS Placa gráfica TUF Gaming NVIDIA GeForce RTX 3070 Ti OC Edition (PCIe 4.0, 8 GB GDDR6X, HDMI 2.1, DisplayPort 1.4a, rolamentos de ventoinha dupla, certificação militar, GPU Tweak II)</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>R$ 6.924,69</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-DisplayPort-rolamentos-ventoinha-certifica%C3%A7%C3%A3o/dp/B096YPLGHG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>ASUS Dual AMD Radeon RX6600XT 8GB GDDR6 Placa gráfica</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>R$ 3.879,00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-Radeon-RX6600XT-GDDR6-gr%C3%A1fica/dp/B09C8XD671?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Gainward GPU NV RTX3070 8GB PHANTOM+ GDDR6 256BITS NE63070019P2-1040M</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>R$ 4.499,00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gainward-RTX3070-PHANTOM-256BITS-NE63070019P2-1040M/dp/B09MS27FNC?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Placa de vídeo para jogos Yeston AMD Radeon RX550 4G D5 LP Radeon Chill 4GB de memória GDDR5 128Bit 6000MHz VGA + HD + GPU DVI-D, meia altura, placa de vídeo com slot único com pequeno branco</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>R$ 2.497,00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Wscoficey-RX550-4G-Radeon-mem%C3%B3ria-6000MHz/dp/B09B26KP1R?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>EVGA GeForce RTX 3060 XC Gaming, 12G-P5-3657-KR, 12GB GDDR6, Dual Fan Placa traseira de metal</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>R$ 5.199,00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Nvidia-Gaming-12G-P5-3657-KR-EVGA/dp/B08WM28PVH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS TUF Gaming - GeForce RTX 3090, 24GB GDDR6X</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>R$ 11.890,00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-NVIDIA-GDDR6X-TUF-RTX3090-O24G-GAMING/dp/B097QFPRM6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Placa gráfica Sapphire AMD FirePro V4900 1GB GDDR5 Dual DP/DVI-I PCI-Express 100-505844</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>R$ 2.279,00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-Sapphire-FirePro-PCI-Express-100-505844/dp/B00GUVVZUW?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Placa gráfica MSI Gaming GeForce GTX 1650 128-Bit HDMI/DP 4GB GDRR5 HDCP suporta DirectX 12 Dual Fan VR Ready OC (GTX 1650 Gaming X 4G)</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>R$ 1.668,20</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GeForce-128-Bit-suporta-DirectX/dp/B07QTMRJTK?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO ASUS GEFORCE RTX 3070 DUAL 8GB GDDR6 256 BITS 90YV0FQ1-M0NA00 - DUAL-RTX3070-8G</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>R$ 14.599,90</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-ASUS-GEFORCE-90YV0FQ1-M0NA00/dp/B08HSJ1622?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO AMD RADEON RX 580 8GB GDDR5 256 BITS DUAL-FAN GRAFFITI SERIES – PAXRX580DR5DF - PCYES</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>R$ 4.170,00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-RADEON-DUAL-FAN-GRAFFITI/dp/B09JZKTJH5?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO NVIDIA GEFORCE GTX 1050 TI 4GB GDDR5 128 BITS DUAL-FAN - GRAFFITI SERIES – PCYES</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>R$ 1.939,00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-GEFORCE-DUAL-FAN/dp/B09J1HM6ML?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>EVGA GeForce RTX 3070 FTW3 Ultra Gaming, 08G-P5-3767-KL, 8GB GDDR6, tecnologia iCX3, LED ARGB, placa traseira de metal, LHR</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>R$ 6.899,99</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GeForce-08G-P5-3767-KL-tecnologia-traseira/dp/B097CLCXDX?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>PNY PLACA DE VIDEO NVIDIA QUADRO - RTX4000 8GB GDDR6 256 BITS (3X DP + 1X DVI-D DL) - VCQRTX4000-PB</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>R$ 9.411,75</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-NVIDIA-QUADRO-VCQRTX4000-PB/dp/B07P6CDHS5?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Placa de Video Asus Radeon Rx 6600 Dual, 8gb, Gddr6, 128-bit, Dual-rx6600-8g</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>R$ 2.935,35</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Video-Radeon-128-bit-Dual-rx6600-8g/dp/B09GPQVK1G?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Gigabyte NVIDIA GeForce RTX 3080 Ti 12GB GDDR6X Placa gráfica</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>R$ 10.999,00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gigabyte-NVIDIA-GeForce-GDDR6X-gr%C3%A1fica/dp/B095X7L17S?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>51RISC Placa de Vídeo RX580 8GB Versão de Atualização GDDR5 DP X3 HDMI X1 para Mineração e Jogos (RX 580 8GB)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>R$ 799,00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/51RISC-Placa-Vers%C3%A3o-Atualiza%C3%A7%C3%A3o-Minera%C3%A7%C3%A3o/dp/B0BG57R18S?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Placa de video evga geforce rtx 2060 6gb ko ultra gaming pci 3.0 ddr6 192bit - 06g-p4-2068-kr</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>R$ 5.999,00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-video-geforce-gaming-192bit/dp/B083JX52VG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Placa de Video RTX 3080 Nvidia 10GB</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>R$ 17.900,00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Video-3080-Nvidia-10GB/dp/B095XZMSPB?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Placa gráfica GTX1650, placa gráfica para jogos 4G GDDR5 128 bits suporte para ventilador duplo HDMI DP DVI placa gráfica com placa PCB, placa de vídeo PCI Express 3.0 de 1485 MHz/8004 MHz</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>R$ 1.032,41</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-GTX1650-suporte-ventilador-Express/dp/B0BBSRGQDP?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>MSI Placa de vídeo Gaming GeForce RTX 3050 8GB GDRR6 128 bits HDMI/DP PCIe 4 Torx Twin Fans Ampere OC (RTX 3050 Gaming X 8G)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>R$ 4.073,64</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GeForce-RTX-3050-8G/dp/B09QB28Y5M?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Placa de Video GTX 1660 Ti 6GB 1 Click OC G6 192B Galax - 60IRL7DSY91C, Galax, GTX 1660 Ti</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>R$ 1.968,00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-GALAX-GeForce-1-Click/dp/B07P1T367X?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO EVGA GEFORCE RTX 3080 FTW3 ULTRA GAMING 12GB GDDR6X 384BITs 12G-P5-4877-KL, Preta</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>R$ 9.913,90</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GEFORCE-GAMING-384BITs-12G-P5-4877-KL/dp/B09RG78HH2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>NVIDIA GeForce RTX NVLink Bridge 4 compartimentos para placas gráficas das séries 3090 e 30</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>R$ 1.199,00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/NVIDIA-GeForce-NVLink-compartimentos-gr%C3%A1ficas/dp/B08S1RYPP6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Palit GeForce RTX 3060 StormX LHR 12GB 192Bit GDDR6</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>R$ 4.965,00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Palit-GeForce-StormX-192Bit/dp/B08WRC2ZTD?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo Radeon RX 6500 XT Eagle 4G, sistema de refrigeração WINDFORCE 2X, 4GB 64-bit GDDR6, GV-R65XTEAGLE-4GD</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>R$ 3.790,00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gigabyte-sistema-refrigera%C3%A7%C3%A3o-WINDFORCE-GV-R65XTEAGLE-4GD/dp/B09QV67R17?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Nvidia GeForce RTX 3090 Phoenix 24GB GRRD6X NED3090019SB-132BX Gainward, 4710562241976</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>R$ 12.267,41</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GeForce-Phoenix-NED3090019SB-132BX-Gainward-4710562241976/dp/B08JCHPRB6?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS TUF Gaming - GeForce GTX 1660 Ti, O6G EVO OC, 6GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>R$ 2.235,40</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-TUF-Gaming/dp/B09C8YJZH5?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo ASUS - Dual GeForce RTX 2060, EVO OC, 6GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>R$ 4.222,92</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-ASUS-GeForce-GDDR6/dp/B07V1Y6Y2J?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GPU AMD RX6500XT 4GB GDDR6 POWER COLOR 1A1-G00367100G</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>R$ 1.899,99</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RX6500XT-GDDR6-POWER-COLOR-1A1-G00367100G/dp/B09PSN3Y63?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>ASUS TUF Gaming NVIDIA GeForce GTX 1660 Ti 6GB GDDR6 Placa gráfica</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>R$ 4.720,90</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-Gaming-NVIDIA-GeForce-gr%C3%A1fica/dp/B09DQ1PXH9?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>ASUS Placa de vídeo para jogos Dual AMD Radeon RX 6700 XT OC Edition 12 GB GDDR6 (AMD RDNA 2, PCIe 4.0, 12 GB de memória GDDR6, HDMI 2.1, DisplayPort 1.4a, design de ventilador axial, tecnologia 0dB)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>R$ 3.499,00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-mem%C3%B3ria-DisplayPort-ventilador-tecnologia/dp/B09J84XCLG?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Placas de vídeo Sapphire AMD FirePro W5000 2GB GDDR5 Dual DP/DVI-I PCI-Express 100-505842</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>R$ 2.526,00</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-Sapphire-FirePro-DVI-PCI-Express-100-505842/dp/B00H6LM2K2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>GPU AMD RX6800XT 16GB GDDR6 SPEEDSTER MERC319 XFX RX68XTACBD9</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>R$ 13.488,96</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RX6800XT-SPEEDSTER-MERC319-XFX-RX68XTACBD9/dp/B08NX14LV1?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mllse Placa de vídeo RX 550 4GB GDDR5 PCI-E X16 128bit HDMI DP DVI-D (RX 550 4GB)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>R$ 559,00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Mllse-Placa-v%C3%ADdeo-GDDR5-128bit/dp/B0BDLTBFXW?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>MSI Placa de vídeo Gaming GeForce RTX 3070 Ti 8GB GDRR6X 256-Bit HDMI/DP Nvlink Tri-Frozr 2 Ampere Architecture OC (RTX 3070 Ti Ventus 3X 8G OC)</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>R$ 5.399,00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GeForce-RTX-3070-Architecture/dp/B096HQC9Y5?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3070 8GB GDDR6 TWIN EDGE ZOTAC ZT-A30700E-10PLHR* (Lite Hash Rate)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>R$ 7.999,99</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3070-GDDR6-TWIN-ZOTAC-ZT-A30700E-10PLHR/dp/B09C2PZ2VY?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>EVGA GeForce RTX 3080 12GB XC3 Ultra Gaming, 12G-P5-4865-KL, 12GB GDDR6X, iCX3 Cooling, ARGB LED, placa traseira de metal, LHR</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>R$ 9.050,00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GeForce-12G-P5-4865-KL-Cooling-traseira/dp/B09QL5BRZH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>ASUS Placa de vídeo GeForce RTX 2060 Overclocked 6G GDDR6 Dual Fan EVO Edition VR Ready HDMI DisplayPort DVI (DUAL-RTX2060-O6G-EVO)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>R$ 3.856,31</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-DisplayPort-Overclocked-Dual-Fan-DUAL-RTX2060-O6G-EVO/dp/B07R18TH1X?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo NVIDIA GeForce RTX 1660 Super Ghost 6GB GDDR6 PCI-E 3.0 NE6166S018J9-1160X GAINWARD</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>R$ 2.000,00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-NE6166S018J9-1160X-GAINWARD/dp/B07ZRQH648?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Placa De Vídeo 51Risc RTX 3060 12 GB GAMING GPU GDDR6 192 bits HDMI * 1 DP * 3 PCI Express 4.0 x16 Placa Gráfica (RTX 3060 12GB)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>R$ 2.399,00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-51Risc-GAMING-Express-Gr%C3%A1fica/dp/B0BG5YCK9Q?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Gigabyte - GeForce GTX 1660 Super OC, 6GB GDDR6</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>R$ 1.974,90</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-NVIDIA-GeForce-GV-N166SOC-6GD-GIGABYTE/dp/B07ZPM2BVR?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>MSI Placa gráfica Gaming GeForce RTX 3060 Ti LHR 8GB GDRR6 256 bits HDMI/DP Nvlink Torx Fan 3 Ampere Architecture OC (RTX 3060 Ti Ventus 2X 8G OCV1 LHR)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>R$ 5.000,24</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GeForce-RTX-3060-OCV1/dp/B099N59B14?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>MLLSE Placa gráfica RX 6600XT- GDDR6 8GB 192 bits Ventiladores Duplos (Radeon RX 6600 XT 8GB)</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>R$ 2.095,00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/gr%C3%A1fica-6600XT-Ventiladores-Duplos-Radeon/dp/B0BFBFH711?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>GPU AMD RX6900XT 16GB GDDR6 SPEEDSTER MERC319 XFX RX69XTACBD9</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>R$ 16.444,69</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RX6900XT-SPEEDSTER-MERC319-XFX-RX69XTACBD9/dp/B08SVZNFWR?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Placa de vídeo para jogos ASUS Dual NVIDIA GeForce RTX 3070 OC Edition (PCIe 4.0, 8 GB de memória GDDR6, HDMI 2.1, DisplayPort 1.4a, design de ventoinha Axial-tech, BIOS duplo, placa traseira protetora, GPU Tweak II)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>R$ 14.499,99</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ASUS-DisplayPort-ventilador-tecnologia-prote%C3%A7%C3%A3o/dp/B08L8LG4M3?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>GPU AMD RX6900XT 16GB POWER COLOR 16GBD6-3DHE/OC 1A1-G00345500G</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>R$ 11.990,00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RX6900XT-POWER-COLOR-16GBD6-3DHE-1A1-G00345500G/dp/B08Q2R71CS?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>EVGA GeForce GTX 1650 SC Ultra Gaming, 04G-P4-1057-KR, 4GB GDDR5, ventoinha dupla, placa traseira de metal</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>R$ 2.696,88</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/EVGA-GeForce-04G-P4-1057-KR-ventilador-traseira/dp/B07RT744F8?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>PLACA DE VÍDEO, PALIT, GEFORCE, GTX 1660 SUPER GP, 6GB, 192BIT, GDDR6, NE6166S018J9-1160A-1</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>R$ 2.299,00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Palit-GeForce-192Bit-NE6166S018J9-1160A-1/dp/B092JRVSPH?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo GALAX - GeForce GTX 1050 Ti, 1-Click OC, 4GB DDR5</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>R$ 1.577,07</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GTX1050TI-1-CLICK-128B-GALAX-50IQH8DSQ3CC/dp/B07V44QGJ2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo Msi Geforce Gtx 1050 Ti 4Gb Oc Ddr5 128 Bits - Geforce Gtx 1050 Ti 4Gt Oc MSI, GEFORCE GTX 1050 TI 4GT OC</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>R$ 1.360,40</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Nvidia-Geforce-Gtx1050ti-912-V809-2272/dp/B01MG3IX4F?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>GPU NV GTX1650 VENTUS XS OC 4GB 128BIT DDR6 MSI 912-V809-4057</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>R$ 1.499,90</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/MSI-GTX-1650-Ventus-XS/dp/B08GQ29HRP?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>GPU NV RTX3060 12GB PEGASUS G6 192B GAINWARD NE63060019K9-190AE* (Lite Hash Rate)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>R$ 6.813,81</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RTX3060-12GB-PEGASUS-GAINWARD-NE63060019K9-190AE/dp/B095RKSZV4?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Placa de video asus geforce gtx 1650 tuf gaming 4gb ddr6 128 bits - tuf-gtx1650-4gd6-p-gaming</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>R$ 1.599,00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-video-geforce-gaming-tuf-gtx1650-4gd6-p-gaming/dp/B08FSXCP85?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Placa de Vídeo AMD XFX Radeon RX 6600 8GB DDR6 - RX66XL8LFDQ</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>R$ 2.295,00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-V%C3%ADdeo-XFX-Radeon-6600/dp/B09HHLX543?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>ZOTAC GEFORCE RTX3080 Ti Trinity</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>R$ 11.793,53</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/ZOTAC-GEFORCE-RTX3080-Ti-Trinity/dp/B0968MBC3R?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>GIGABYTE Placa de vídeo AORUS GeForce RTX 3060 Elite 12G, 3x ventoinhas WINDFORCE, 12GB 192-bit GDDR6, GV-N3060AORUS E-12GD</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>R$ 15.000,00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/GIGABYTE-GeForce-ventiladores-WINDFORCE-GV-N3060AORUS/dp/B08XQX96RN?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Placa de vídeo Sapphire 11314-01-20G Pulse AMD Radeon RX 6500 XT Gaming OC com 4GB GDDR6, AMD RDNA 2</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>R$ 2.781,00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-Sapphire-11314-01-20G-Radeon-Gaming/dp/B09PZJ2JNZ?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>GPU AMD RX6600XT 8GB GDDR6 SPEEDSTER QICK308 XFX RX66XT8LBDQ</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>R$ 3.380,34</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/RX6600XT-SPEEDSTER-QICK308-XFX-RX66XT8LBDQ/dp/B09B46MZ3T?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Gigabyte PLACA DE VIDEO GEFORCE RTX 3080 GAMING OC 12GB GDDR6X 384BIT GV-N3080GAMING OC-12GD G10, Preto</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>R$ 10.450,00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Gigabyte-GEFORCE-GAMING-GV-N3080GAMING-OC-12GD/dp/B09Q8S91T2?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>PLACA DE VIDEO AFOX RADEON RX580 8GB GDDR5 - AFRX580-8192D5H3-V2</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>R$ 1.799,90</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/PLACA-VIDEO-AFOX-RADEON-RX580/dp/B09GM7HF2Q?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Placa de video asus geforce gtx 1650 dual 4gb ddr5 128 bits - dual-gtx1650-4g</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>R$ 1.494,80</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com.br/Placa-video-asus-geforce-1650/dp/B07QT61W4Y?ufe=app_do%3Aamzn1.fos.25548f35-0de7-44b3-b28e-0f56f3f96147</t>
         </is>
       </c>
     </row>
